--- a/templates/fact21.xlsx
+++ b/templates/fact21.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t xml:space="preserve">Приложение № 1</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">(в ред. Постановления Правительства РФ от 02.04.2021 № 534)</t>
   </si>
   <si>
-    <t xml:space="preserve">I. Форма счета-фактуры, применяемого при расчетах по налогу на добавленную стоимость</t>
-  </si>
-  <si>
     <t xml:space="preserve">СЧЕТ-ФАКТУРА  №</t>
   </si>
   <si>
@@ -262,12 +259,6 @@
   </si>
   <si>
     <t xml:space="preserve">без акциза</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Россия</t>
   </si>
   <si>
     <t xml:space="preserve"> Всего к оплате (9)</t>
@@ -874,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:FK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="E10" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.08203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -936,9 +927,7 @@
       <c r="EC5" s="6"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1109,7 +1098,7 @@
     <row r="7" customFormat="false" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" s="9" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
@@ -1123,7 +1112,7 @@
       <c r="BA8" s="11"/>
       <c r="BB8" s="11"/>
       <c r="BF8" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG8" s="11"/>
       <c r="BH8" s="11"/>
@@ -1131,7 +1120,7 @@
       <c r="BJ8" s="11"/>
       <c r="BK8" s="11"/>
       <c r="BL8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO8" s="11"/>
       <c r="BP8" s="11"/>
@@ -1158,12 +1147,12 @@
       <c r="CK8" s="11"/>
       <c r="CL8" s="11"/>
       <c r="CN8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL9" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
@@ -1177,7 +1166,7 @@
       <c r="BA9" s="11"/>
       <c r="BB9" s="11"/>
       <c r="BF9" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG9" s="11"/>
       <c r="BH9" s="11"/>
@@ -1185,7 +1174,7 @@
       <c r="BJ9" s="11"/>
       <c r="BK9" s="11"/>
       <c r="BL9" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO9" s="11"/>
       <c r="BP9" s="11"/>
@@ -1212,12 +1201,12 @@
       <c r="CK9" s="11"/>
       <c r="CL9" s="11"/>
       <c r="CN9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -1301,12 +1290,12 @@
       <c r="CK10" s="13"/>
       <c r="CL10" s="13"/>
       <c r="CN10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="true" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1393,12 +1382,12 @@
       <c r="CK11" s="14"/>
       <c r="CL11" s="14"/>
       <c r="CN11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1490,12 +1479,12 @@
       <c r="CK12" s="16"/>
       <c r="CL12" s="16"/>
       <c r="CN12" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" s="12" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1587,12 +1576,12 @@
       <c r="CK13" s="17"/>
       <c r="CL13" s="17"/>
       <c r="CN13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" s="12" customFormat="true" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1684,12 +1673,12 @@
       <c r="CK14" s="14"/>
       <c r="CL14" s="14"/>
       <c r="CN14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1781,12 +1770,12 @@
       <c r="CK15" s="18"/>
       <c r="CL15" s="18"/>
       <c r="CN15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1826,7 +1815,7 @@
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
       <c r="AM16" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20"/>
@@ -1846,7 +1835,7 @@
       <c r="BC16" s="21"/>
       <c r="BD16" s="21"/>
       <c r="BE16" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BF16" s="22"/>
       <c r="BG16" s="22"/>
@@ -1882,12 +1871,12 @@
       <c r="CK16" s="21"/>
       <c r="CL16" s="21"/>
       <c r="CN16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" s="12" customFormat="true" ht="23.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1970,12 +1959,12 @@
       <c r="CK17" s="13"/>
       <c r="CL17" s="13"/>
       <c r="CN17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" s="12" customFormat="true" ht="21.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2062,12 +2051,12 @@
       <c r="CK18" s="14"/>
       <c r="CL18" s="14"/>
       <c r="CN18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2159,12 +2148,12 @@
       <c r="CK19" s="16"/>
       <c r="CL19" s="16"/>
       <c r="CN19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2188,7 +2177,7 @@
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -2258,12 +2247,12 @@
       <c r="CK20" s="23"/>
       <c r="CL20" s="23"/>
       <c r="CN20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" s="12" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -2356,7 +2345,7 @@
       <c r="CL21" s="16"/>
       <c r="CM21" s="25"/>
       <c r="CN21" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CO21" s="25"/>
     </row>
@@ -2531,13 +2520,13 @@
     </row>
     <row r="23" s="29" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -2554,7 +2543,7 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
@@ -2562,7 +2551,7 @@
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
@@ -2580,7 +2569,7 @@
       <c r="AN23" s="28"/>
       <c r="AO23" s="28"/>
       <c r="AP23" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="27"/>
@@ -2589,7 +2578,7 @@
       <c r="AU23" s="27"/>
       <c r="AV23" s="27"/>
       <c r="AW23" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
@@ -2600,7 +2589,7 @@
       <c r="BD23" s="27"/>
       <c r="BE23" s="27"/>
       <c r="BF23" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BG23" s="27"/>
       <c r="BH23" s="27"/>
@@ -2613,7 +2602,7 @@
       <c r="BO23" s="27"/>
       <c r="BP23" s="27"/>
       <c r="BQ23" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BR23" s="27"/>
       <c r="BS23" s="27"/>
@@ -2622,7 +2611,7 @@
       <c r="BV23" s="27"/>
       <c r="BW23" s="27"/>
       <c r="BX23" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BY23" s="27"/>
       <c r="BZ23" s="27"/>
@@ -2631,7 +2620,7 @@
       <c r="CC23" s="27"/>
       <c r="CD23" s="27"/>
       <c r="CE23" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CF23" s="27"/>
       <c r="CG23" s="27"/>
@@ -2642,7 +2631,7 @@
       <c r="CL23" s="27"/>
       <c r="CM23" s="27"/>
       <c r="CN23" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CO23" s="27"/>
       <c r="CP23" s="27"/>
@@ -2657,7 +2646,7 @@
       <c r="CY23" s="27"/>
       <c r="CZ23" s="27"/>
       <c r="DA23" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DB23" s="28"/>
       <c r="DC23" s="28"/>
@@ -2676,7 +2665,7 @@
       <c r="DP23" s="28"/>
       <c r="DQ23" s="28"/>
       <c r="DR23" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DS23" s="27"/>
       <c r="DT23" s="27"/>
@@ -2693,7 +2682,7 @@
       <c r="EE23" s="27"/>
       <c r="EF23" s="27"/>
       <c r="EG23" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="EH23" s="28"/>
       <c r="EI23" s="28"/>
@@ -2711,7 +2700,7 @@
       <c r="EU23" s="28"/>
       <c r="EV23" s="28"/>
       <c r="EW23" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="EX23" s="27"/>
       <c r="EY23" s="27"/>
@@ -2755,14 +2744,14 @@
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA24" s="27"/>
       <c r="AB24" s="27"/>
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF24" s="27"/>
       <c r="AG24" s="27"/>
@@ -2838,7 +2827,7 @@
       <c r="CY24" s="27"/>
       <c r="CZ24" s="27"/>
       <c r="DA24" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="DB24" s="27"/>
       <c r="DC24" s="27"/>
@@ -2847,7 +2836,7 @@
       <c r="DF24" s="27"/>
       <c r="DG24" s="27"/>
       <c r="DH24" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="DI24" s="27"/>
       <c r="DJ24" s="27"/>
@@ -2874,7 +2863,7 @@
       <c r="EE24" s="27"/>
       <c r="EF24" s="27"/>
       <c r="EG24" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="EH24" s="27"/>
       <c r="EI24" s="27"/>
@@ -2883,7 +2872,7 @@
       <c r="EL24" s="27"/>
       <c r="EM24" s="27"/>
       <c r="EN24" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="EO24" s="27"/>
       <c r="EP24" s="27"/>
@@ -2911,13 +2900,13 @@
     </row>
     <row r="25" s="32" customFormat="true" ht="8.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -2934,7 +2923,7 @@
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
       <c r="T25" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U25" s="30"/>
       <c r="V25" s="30"/>
@@ -2942,14 +2931,14 @@
       <c r="X25" s="30"/>
       <c r="Y25" s="30"/>
       <c r="Z25" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA25" s="31"/>
       <c r="AB25" s="31"/>
       <c r="AC25" s="31"/>
       <c r="AD25" s="31"/>
       <c r="AE25" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF25" s="30"/>
       <c r="AG25" s="30"/>
@@ -2962,7 +2951,7 @@
       <c r="AN25" s="30"/>
       <c r="AO25" s="30"/>
       <c r="AP25" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ25" s="30"/>
       <c r="AR25" s="30"/>
@@ -2971,7 +2960,7 @@
       <c r="AU25" s="30"/>
       <c r="AV25" s="30"/>
       <c r="AW25" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX25" s="30"/>
       <c r="AY25" s="30"/>
@@ -2982,7 +2971,7 @@
       <c r="BD25" s="30"/>
       <c r="BE25" s="30"/>
       <c r="BF25" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BG25" s="30"/>
       <c r="BH25" s="30"/>
@@ -2995,7 +2984,7 @@
       <c r="BO25" s="30"/>
       <c r="BP25" s="30"/>
       <c r="BQ25" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BR25" s="30"/>
       <c r="BS25" s="30"/>
@@ -3004,7 +2993,7 @@
       <c r="BV25" s="30"/>
       <c r="BW25" s="30"/>
       <c r="BX25" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BY25" s="30"/>
       <c r="BZ25" s="30"/>
@@ -3013,7 +3002,7 @@
       <c r="CC25" s="30"/>
       <c r="CD25" s="30"/>
       <c r="CE25" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CF25" s="30"/>
       <c r="CG25" s="30"/>
@@ -3024,7 +3013,7 @@
       <c r="CL25" s="30"/>
       <c r="CM25" s="30"/>
       <c r="CN25" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CO25" s="30"/>
       <c r="CP25" s="30"/>
@@ -3039,7 +3028,7 @@
       <c r="CY25" s="30"/>
       <c r="CZ25" s="30"/>
       <c r="DA25" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DB25" s="31"/>
       <c r="DC25" s="31"/>
@@ -3048,7 +3037,7 @@
       <c r="DF25" s="31"/>
       <c r="DG25" s="31"/>
       <c r="DH25" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="DI25" s="30"/>
       <c r="DJ25" s="30"/>
@@ -3060,7 +3049,7 @@
       <c r="DP25" s="30"/>
       <c r="DQ25" s="30"/>
       <c r="DR25" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DS25" s="30"/>
       <c r="DT25" s="30"/>
@@ -3077,7 +3066,7 @@
       <c r="EE25" s="30"/>
       <c r="EF25" s="30"/>
       <c r="EG25" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="EH25" s="31"/>
       <c r="EI25" s="31"/>
@@ -3086,7 +3075,7 @@
       <c r="EL25" s="31"/>
       <c r="EM25" s="31"/>
       <c r="EN25" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="EO25" s="30"/>
       <c r="EP25" s="30"/>
@@ -3097,7 +3086,7 @@
       <c r="EU25" s="30"/>
       <c r="EV25" s="30"/>
       <c r="EW25" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="EX25" s="30"/>
       <c r="EY25" s="30"/>
@@ -3135,7 +3124,7 @@
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
@@ -3186,7 +3175,7 @@
       <c r="BO26" s="39"/>
       <c r="BP26" s="39"/>
       <c r="BQ26" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BR26" s="40"/>
       <c r="BS26" s="40"/>
@@ -3224,7 +3213,7 @@
       <c r="CY26" s="39"/>
       <c r="CZ26" s="39"/>
       <c r="DA26" s="36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="DB26" s="36"/>
       <c r="DC26" s="36"/>
@@ -3233,7 +3222,7 @@
       <c r="DF26" s="36"/>
       <c r="DG26" s="36"/>
       <c r="DH26" s="37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="DI26" s="37"/>
       <c r="DJ26" s="37"/>
@@ -3245,7 +3234,7 @@
       <c r="DP26" s="37"/>
       <c r="DQ26" s="37"/>
       <c r="DR26" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="DS26" s="36"/>
       <c r="DT26" s="36"/>
@@ -3262,7 +3251,7 @@
       <c r="EE26" s="36"/>
       <c r="EF26" s="36"/>
       <c r="EG26" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="EH26" s="42"/>
       <c r="EI26" s="42"/>
@@ -3271,7 +3260,7 @@
       <c r="EL26" s="42"/>
       <c r="EM26" s="42"/>
       <c r="EN26" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="EO26" s="37"/>
       <c r="EP26" s="37"/>
@@ -3282,7 +3271,7 @@
       <c r="EU26" s="37"/>
       <c r="EV26" s="37"/>
       <c r="EW26" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="EX26" s="40"/>
       <c r="EY26" s="40"/>
@@ -3301,7 +3290,7 @@
     </row>
     <row r="27" s="29" customFormat="true" ht="21.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3371,7 +3360,7 @@
       <c r="BO27" s="49"/>
       <c r="BP27" s="49"/>
       <c r="BQ27" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="BR27" s="50"/>
       <c r="BS27" s="50"/>
@@ -3643,15 +3632,15 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="CJ29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AM30" s="57"/>
       <c r="AN30" s="57"/>
@@ -3670,7 +3659,7 @@
       <c r="BA30" s="57"/>
       <c r="BB30" s="57"/>
       <c r="BE30" s="58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BF30" s="58"/>
       <c r="BG30" s="58"/>
@@ -3701,7 +3690,7 @@
       <c r="CF30" s="58"/>
       <c r="CG30" s="58"/>
       <c r="CJ30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="DQ30" s="57"/>
       <c r="DR30" s="57"/>
@@ -3720,7 +3709,7 @@
       <c r="EE30" s="57"/>
       <c r="EF30" s="57"/>
       <c r="EI30" s="58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="EJ30" s="58"/>
       <c r="EK30" s="58"/>
@@ -3753,7 +3742,7 @@
     </row>
     <row r="31" s="59" customFormat="true" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AM31" s="60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AN31" s="60"/>
       <c r="AO31" s="60"/>
@@ -3773,7 +3762,7 @@
       <c r="BC31" s="61"/>
       <c r="BD31" s="61"/>
       <c r="BE31" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="BF31" s="62"/>
       <c r="BG31" s="62"/>
@@ -3804,7 +3793,7 @@
       <c r="CF31" s="62"/>
       <c r="CG31" s="62"/>
       <c r="DQ31" s="60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="DR31" s="60"/>
       <c r="DS31" s="60"/>
@@ -3824,7 +3813,7 @@
       <c r="EG31" s="61"/>
       <c r="EH31" s="61"/>
       <c r="EI31" s="63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="EJ31" s="63"/>
       <c r="EK31" s="63"/>
@@ -3857,12 +3846,12 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AM33" s="57"/>
       <c r="AN33" s="57"/>
@@ -3992,7 +3981,7 @@
     </row>
     <row r="34" s="59" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AM34" s="60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AN34" s="60"/>
       <c r="AO34" s="60"/>
@@ -4012,7 +4001,7 @@
       <c r="BC34" s="61"/>
       <c r="BD34" s="61"/>
       <c r="BE34" s="63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="BF34" s="63"/>
       <c r="BG34" s="63"/>
@@ -4043,7 +4032,7 @@
       <c r="CF34" s="63"/>
       <c r="CG34" s="63"/>
       <c r="CJ34" s="65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="CK34" s="65"/>
       <c r="CL34" s="65"/>

--- a/templates/fact21.xlsx
+++ b/templates/fact21.xlsx
@@ -337,16 +337,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -859,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:FK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="E7" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DH27" activeCellId="0" sqref="DH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.08203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/templates/fact21.xlsx
+++ b/templates/fact21.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="стр.1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="стр.1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'стр.1'!$A$1:$FY$35</definedName>
@@ -311,7 +311,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(По приказу №58-П от 05 марта 2019 г.)</t>
+      <t xml:space="preserve">(По приказу №68-П от 11 июля 2022 г.)</t>
     </r>
   </si>
   <si>
@@ -346,16 +346,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -548,283 +551,283 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -900,15 +903,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:FY1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DO28" activeCellId="0" sqref="DO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.08203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -919,7 +1028,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="182" style="1" width="1.07"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="EF1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1304,7 @@
       <c r="FK6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="11" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL8" s="12" t="s">
         <v>3</v>
       </c>
@@ -1249,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="14" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" s="14" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" s="14" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
         <v>31</v>
       </c>
@@ -2351,7 +2460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" s="14" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
         <v>34</v>
       </c>
@@ -3029,7 +3138,7 @@
       <c r="FX24" s="31"/>
       <c r="FY24" s="31"/>
     </row>
-    <row r="25" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
         <v>57</v>
       </c>
